--- a/utdata/Lærermod.xlsx
+++ b/utdata/Lærermod.xlsx
@@ -1,43 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkn/Developer/Laerermod/utdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA81D7-15B4-7E4C-99BE-2C6EC1D2A495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Utdanning</t>
+  </si>
+  <si>
+    <t>År</t>
+  </si>
+  <si>
+    <t>Tilbud</t>
+  </si>
+  <si>
+    <t>Etterspørsel</t>
+  </si>
+  <si>
+    <t>Differanse</t>
+  </si>
+  <si>
+    <t>Barnehagelærere</t>
+  </si>
+  <si>
+    <t>Grunnskolelærere</t>
+  </si>
+  <si>
+    <t>Lektorutdannede</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>Praktiske og estetiske fag</t>
+  </si>
+  <si>
+    <t>Yrkesfaglærere</t>
+  </si>
+  <si>
+    <t>PPU Yrkesfag</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,114 +93,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,3968 +420,3945 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Utdanning</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>År</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tilbud</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Etterspørsel</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Differanse</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Barnehagelærere</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>2024</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>47134</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>47134</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1">
         <v>2025</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>48006</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>46876</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1130</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
         <v>2026</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>49060</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>46625</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2434</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
         <v>2027</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>50122</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>46667</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3454</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
         <v>2028</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>51189</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>46712</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>4477</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
         <v>2029</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>52255</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>47136</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5119</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
         <v>2030</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>53320</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>47567</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>5753</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
         <v>2031</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>54361</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>47932</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6429</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
         <v>2032</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>55376</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>48242</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7134</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1">
         <v>2033</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>56336</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>48506</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>7830</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
         <v>2034</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>57221</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>48777</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>8444</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
         <v>2035</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>58032</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>49084</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>8948</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
         <v>2036</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>58747</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>49413</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>9335</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
         <v>2037</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>59369</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>49768</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>9601</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
         <v>2038</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>59914</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>50016</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>9898</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1">
         <v>2039</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>60372</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>50231</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>10142</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1">
         <v>2040</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>60786</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>50383</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>10403</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1">
         <v>2041</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>61179</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>50492</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>10687</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1">
         <v>2042</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>61582</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>50547</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>11035</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
         <v>2043</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>62014</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>50575</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>11439</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1">
         <v>2044</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>62497</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>50566</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>11931</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1">
         <v>2045</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>63019</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>50516</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>12503</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1">
         <v>2046</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>63580</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>50423</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>13158</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1">
         <v>2047</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>64177</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>50284</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>13893</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1">
         <v>2048</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>64779</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>50107</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>14672</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1">
         <v>2049</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>65359</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>49892</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>15467</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1">
         <v>2050</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>65906</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>49646</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>16260</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1">
         <v>2051</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>66423</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>49378</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>17045</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1">
         <v>2052</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>66881</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>49100</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>17781</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1">
         <v>2053</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>67274</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>48826</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>18448</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1">
         <v>2054</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>67628</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>48569</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>19059</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1">
         <v>2055</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>67947</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>48336</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>19611</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1">
         <v>2056</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>68251</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>48139</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>20112</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1">
         <v>2057</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>68526</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>47982</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>20544</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
         <v>2058</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>68793</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>47870</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>20923</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1">
         <v>2059</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>69065</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>47803</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>21262</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1">
         <v>2060</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>69337</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>47781</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>21557</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Grunnskolelærere</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
         <v>2024</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>52497</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>52497</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1">
         <v>2025</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>52777</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>52337</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>440</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1">
         <v>2026</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>53242</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>51955</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>1287</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1">
         <v>2027</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>53765</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>51408</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2357</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1">
         <v>2028</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>54345</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>51097</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>3248</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1">
         <v>2029</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>54965</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>50519</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>4446</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1">
         <v>2030</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>55593</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>50047</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>5546</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1">
         <v>2031</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>56253</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>49641</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>6611</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1">
         <v>2032</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>56894</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>49313</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>7581</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1">
         <v>2033</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>57499</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>49082</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>8418</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1">
         <v>2034</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>58042</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>49043</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>8999</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1">
         <v>2035</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>58526</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>49106</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>9420</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1">
         <v>2036</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>58935</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>49227</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>9708</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1">
         <v>2037</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>59263</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>49457</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>9806</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1">
         <v>2038</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>59534</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>49579</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>9955</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1">
         <v>2039</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>59748</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>49958</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>9790</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1">
         <v>2040</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>59940</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>50370</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>9569</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1">
         <v>2041</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>60123</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>50765</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>9358</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1">
         <v>2042</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>60302</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>51170</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>9132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1">
         <v>2043</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>60504</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>51501</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>9003</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1">
         <v>2044</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>60720</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>51768</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>8952</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1">
         <v>2045</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>60980</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>51999</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>8981</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1">
         <v>2046</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>61255</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>52197</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>9059</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1">
         <v>2047</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>61540</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>52357</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>9182</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1">
         <v>2048</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>61855</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>52481</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>9374</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1">
         <v>2049</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>62184</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>52559</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>9625</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1">
         <v>2050</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>62524</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>52583</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>9941</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1">
         <v>2051</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>62882</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>52551</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>10331</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1">
         <v>2052</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>63274</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>52457</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>10817</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1">
         <v>2053</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>63678</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>52332</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>11346</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="1">
         <v>2054</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>64056</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>52173</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>11882</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1">
         <v>2055</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>64408</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>51981</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>12427</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1">
         <v>2056</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>64714</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>51761</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>12953</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1">
         <v>2057</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>64980</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>51518</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>13461</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1">
         <v>2058</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>65183</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>51260</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>13923</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1">
         <v>2059</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>65337</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>50994</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>14343</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1">
         <v>2060</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>65456</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>50731</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>14726</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Lektorutdannede</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1">
         <v>2024</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5534</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>5534</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1">
         <v>2025</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5962</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>5573</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>388</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1">
         <v>2026</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>6432</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>5594</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>838</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1">
         <v>2027</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>6903</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>5592</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>1311</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1">
         <v>2028</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>7374</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>5580</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>1794</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1">
         <v>2029</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>7844</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>5553</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>2291</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1">
         <v>2030</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>8308</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>5524</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>2784</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1">
         <v>2031</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>8769</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>5503</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>3266</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1">
         <v>2032</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>9220</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>5488</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>3733</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1">
         <v>2033</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>9668</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>5483</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>4185</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1">
         <v>2034</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>10103</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>5470</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>4633</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1">
         <v>2035</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>10533</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>5453</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>5080</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1">
         <v>2036</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>10954</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>5439</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>5514</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1">
         <v>2037</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>11370</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>5434</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>5936</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1">
         <v>2038</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>11782</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>5450</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>6333</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1">
         <v>2039</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>12191</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>5450</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>6741</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1">
         <v>2040</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>12590</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>5455</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>7135</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1">
         <v>2041</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>12990</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>5459</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>7531</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1">
         <v>2042</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>13389</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>5488</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>7901</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1">
         <v>2043</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>13786</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>5521</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>8265</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="1">
         <v>2044</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>14177</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>5553</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>8624</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1">
         <v>2045</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>14569</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>5581</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>8988</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="1">
         <v>2046</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>14955</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>5603</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>9352</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="1">
         <v>2047</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>15337</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>5621</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>9716</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1">
         <v>2048</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>15706</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>5637</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>10069</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="1">
         <v>2049</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>16067</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>5653</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>10414</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="1">
         <v>2050</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>16414</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>5666</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>10749</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="1">
         <v>2051</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>16754</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>5677</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>11077</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="n">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="1">
         <v>2052</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>17079</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>5685</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>11393</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="n">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="1">
         <v>2053</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>17391</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>5688</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>11702</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="n">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1">
         <v>2054</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>17691</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>5686</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>12005</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="n">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1">
         <v>2055</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>17970</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>5680</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>12290</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="n">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1">
         <v>2056</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>18233</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>5672</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>12561</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n"/>
-      <c r="B109" s="1" t="n">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="1">
         <v>2057</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>18481</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>5662</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>12819</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="n">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1">
         <v>2058</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>18712</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>5651</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>13061</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="n">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1">
         <v>2059</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>18926</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>5638</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>13288</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="n">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1">
         <v>2060</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>19128</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>5624</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>13505</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>PPU</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
         <v>2024</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>30789</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>30789</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="n">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1">
         <v>2025</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>30791</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>31017</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>-227</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="n">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="1">
         <v>2026</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>30887</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>31137</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>-250</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="n">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="1">
         <v>2027</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>31002</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>31119</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>-116</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="n">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1">
         <v>2028</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>31131</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>31034</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>97</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="n">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1">
         <v>2029</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>31262</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>30865</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>396</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="n">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1">
         <v>2030</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>31395</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>30680</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>715</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="n">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1">
         <v>2031</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>31514</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>30544</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>971</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="n">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1">
         <v>2032</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>31621</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>30437</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>1184</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="n">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1">
         <v>2033</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>31711</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>30391</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>1321</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="n">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1">
         <v>2034</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>31771</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>30293</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>1479</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n"/>
-      <c r="B124" s="1" t="n">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="1">
         <v>2035</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>31797</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>30169</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>1628</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="n">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1">
         <v>2036</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>31791</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>30063</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>1728</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="n">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1">
         <v>2037</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>31748</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>30003</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>1746</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1">
         <v>2038</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>31695</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>30078</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>1617</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="n">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1">
         <v>2039</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>31610</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>30051</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>1559</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="n">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1">
         <v>2040</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>31526</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>30056</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>1470</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="n">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1">
         <v>2041</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>31428</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>30053</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>1376</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="n">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1">
         <v>2042</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>31343</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>30204</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>1139</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="1">
         <v>2043</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>31256</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>30383</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>873</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="n">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1">
         <v>2044</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>31181</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>30562</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>619</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="n">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1">
         <v>2045</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>31112</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>30716</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>396</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="n">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1">
         <v>2046</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>31042</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>30839</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>203</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="n">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1">
         <v>2047</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>30977</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>30940</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>37</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="n">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1">
         <v>2048</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>30919</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>31035</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>-116</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="n">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1">
         <v>2049</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>30849</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>31125</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>-277</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="n">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1">
         <v>2050</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>30784</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>31207</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>-423</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="n">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1">
         <v>2051</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>30705</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>31276</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>-571</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="n">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1">
         <v>2052</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>30634</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>31331</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>-697</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n"/>
-      <c r="B142" s="1" t="n">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1">
         <v>2053</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>30554</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>31354</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>-800</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n"/>
-      <c r="B143" s="1" t="n">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1">
         <v>2054</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>30456</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>31345</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>-889</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="n">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1">
         <v>2055</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>30364</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>31310</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>-945</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n"/>
-      <c r="B145" s="1" t="n">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1">
         <v>2056</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>30253</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>31266</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>-1014</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n"/>
-      <c r="B146" s="1" t="n">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1">
         <v>2057</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>30150</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>31212</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>-1062</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="n">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1">
         <v>2058</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>30040</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>31147</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>-1107</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="n">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1">
         <v>2059</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>29937</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>31071</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>-1134</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n"/>
-      <c r="B149" s="1" t="n">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1">
         <v>2060</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>29859</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>30986</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>-1127</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Praktiske og estetiske fag</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1">
         <v>2024</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>5534</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>5534</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="n">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1">
         <v>2025</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>5812</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>5573</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>238</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="1">
         <v>2026</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>6123</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>5594</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>529</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="n">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="1">
         <v>2027</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>6431</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>5592</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>839</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n"/>
-      <c r="B154" s="1" t="n">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="1">
         <v>2028</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>6738</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>5580</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>1158</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="1">
         <v>2029</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>7043</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>5553</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>1490</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="n">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="1">
         <v>2030</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>7341</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>5524</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>1817</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n"/>
-      <c r="B157" s="1" t="n">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1">
         <v>2031</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>7637</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>5503</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>2134</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n"/>
-      <c r="B158" s="1" t="n">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="1">
         <v>2032</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>7924</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>5488</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>2436</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="n">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="1">
         <v>2033</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>8208</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>5483</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>2725</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="n">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="1">
         <v>2034</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>8481</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>5470</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>3012</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1">
         <v>2035</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>8750</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>5453</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>3297</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="n">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="1">
         <v>2036</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>9011</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>5439</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>3571</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="n">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1">
         <v>2037</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>9267</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>5434</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>3833</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="n">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="1">
         <v>2038</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>9521</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>5450</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>4071</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="n">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="1">
         <v>2039</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>9773</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>5450</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>4323</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="n">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="1">
         <v>2040</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>10017</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>5455</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>4562</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="n">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1">
         <v>2041</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>10263</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>5459</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>4804</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="n">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
+      <c r="B168" s="1">
         <v>2042</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>10510</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>5488</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>5022</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="n">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
+      <c r="B169" s="1">
         <v>2043</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>10756</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>5521</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>5235</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n"/>
-      <c r="B170" s="1" t="n">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
+      <c r="B170" s="1">
         <v>2044</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>10999</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>5553</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>5446</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n"/>
-      <c r="B171" s="1" t="n">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
+      <c r="B171" s="1">
         <v>2045</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>11242</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>5581</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>5661</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+      <c r="B172" s="1">
         <v>2046</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>11482</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>5603</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>5879</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1">
         <v>2047</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>11721</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>5621</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>6100</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+      <c r="B174" s="1">
         <v>2048</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>11948</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>5637</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>6311</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="n">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1">
         <v>2049</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>12169</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>5653</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>6516</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="n">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+      <c r="B176" s="1">
         <v>2050</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>12379</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>5666</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>6713</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n"/>
-      <c r="B177" s="1" t="n">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+      <c r="B177" s="1">
         <v>2051</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>12584</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>5677</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>6907</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="n">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+      <c r="B178" s="1">
         <v>2052</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>12777</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>5685</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>7091</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="n">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+      <c r="B179" s="1">
         <v>2053</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>12959</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>5688</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>7271</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n"/>
-      <c r="B180" s="1" t="n">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+      <c r="B180" s="1">
         <v>2054</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>13134</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>5686</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>7448</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="n">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+      <c r="B181" s="1">
         <v>2055</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>13289</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>5680</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>7609</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="n">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="B182" s="1">
         <v>2056</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>13432</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>5672</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>7761</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="n">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
+      <c r="B183" s="1">
         <v>2057</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>13564</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>5662</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>7902</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="n">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
+      <c r="B184" s="1">
         <v>2058</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>13683</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>5651</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>8032</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="n">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
+      <c r="B185" s="1">
         <v>2059</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>13790</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>5638</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>8153</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n"/>
-      <c r="B186" s="1" t="n">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+      <c r="B186" s="1">
         <v>2060</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>13891</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>5624</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>8267</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>Yrkesfaglærere</t>
-        </is>
-      </c>
-      <c r="B187" s="1" t="n">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="1">
         <v>2024</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>5534</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>5534</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>0</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="n">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
+      <c r="B188" s="1">
         <v>2025</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>5629</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>5573</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>55</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n"/>
-      <c r="B189" s="1" t="n">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
+      <c r="B189" s="1">
         <v>2026</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>5775</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>5594</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>181</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n"/>
-      <c r="B190" s="1" t="n">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
+      <c r="B190" s="1">
         <v>2027</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>5921</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>5592</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>328</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n"/>
-      <c r="B191" s="1" t="n">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
+      <c r="B191" s="1">
         <v>2028</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>6073</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>5580</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>494</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n"/>
-      <c r="B192" s="1" t="n">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
+      <c r="B192" s="1">
         <v>2029</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>6228</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>5553</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>675</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n"/>
-      <c r="B193" s="1" t="n">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+      <c r="B193" s="1">
         <v>2030</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>6379</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>5524</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>855</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n"/>
-      <c r="B194" s="1" t="n">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+      <c r="B194" s="1">
         <v>2031</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>6530</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>5503</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>1026</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n"/>
-      <c r="B195" s="1" t="n">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
+      <c r="B195" s="1">
         <v>2032</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>6673</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>5488</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>1185</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n"/>
-      <c r="B196" s="1" t="n">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
+      <c r="B196" s="1">
         <v>2033</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>6816</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>5483</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>1333</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="n">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+      <c r="B197" s="1">
         <v>2034</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>6951</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>5470</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>1481</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n"/>
-      <c r="B198" s="1" t="n">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="B198" s="1">
         <v>2035</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>7081</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>5453</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>1628</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n"/>
-      <c r="B199" s="1" t="n">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+      <c r="B199" s="1">
         <v>2036</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>7203</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>5439</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>1763</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n"/>
-      <c r="B200" s="1" t="n">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
+      <c r="B200" s="1">
         <v>2037</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>7321</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>5434</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>1887</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n"/>
-      <c r="B201" s="1" t="n">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+      <c r="B201" s="1">
         <v>2038</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>7438</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>5450</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>1988</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n"/>
-      <c r="B202" s="1" t="n">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+      <c r="B202" s="1">
         <v>2039</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>7555</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>5450</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>2105</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="n">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+      <c r="B203" s="1">
         <v>2040</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>7668</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>5455</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>2213</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n"/>
-      <c r="B204" s="1" t="n">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+      <c r="B204" s="1">
         <v>2041</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>7784</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>5459</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>2325</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n"/>
-      <c r="B205" s="1" t="n">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
+      <c r="B205" s="1">
         <v>2042</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>7901</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>5488</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>2414</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n"/>
-      <c r="B206" s="1" t="n">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
+      <c r="B206" s="1">
         <v>2043</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>8019</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>5521</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>2499</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="n">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
+      <c r="B207" s="1">
         <v>2044</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>8136</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>5553</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>2583</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n"/>
-      <c r="B208" s="1" t="n">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
+      <c r="B208" s="1">
         <v>2045</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>8254</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>5581</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>2673</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n"/>
-      <c r="B209" s="1" t="n">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+      <c r="B209" s="1">
         <v>2046</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>8371</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>5603</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>2768</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n"/>
-      <c r="B210" s="1" t="n">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+      <c r="B210" s="1">
         <v>2047</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>8488</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>5621</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>2867</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n"/>
-      <c r="B211" s="1" t="n">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+      <c r="B211" s="1">
         <v>2048</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>8596</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>5637</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>2959</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n"/>
-      <c r="B212" s="1" t="n">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+      <c r="B212" s="1">
         <v>2049</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>8702</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>5653</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>3049</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n"/>
-      <c r="B213" s="1" t="n">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+      <c r="B213" s="1">
         <v>2050</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>8798</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>5666</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>3132</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n"/>
-      <c r="B214" s="1" t="n">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+      <c r="B214" s="1">
         <v>2051</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>8891</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>5677</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>3215</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n"/>
-      <c r="B215" s="1" t="n">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+      <c r="B215" s="1">
         <v>2052</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>8977</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>5685</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>3291</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n"/>
-      <c r="B216" s="1" t="n">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+      <c r="B216" s="1">
         <v>2053</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>9054</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>5688</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>3366</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n"/>
-      <c r="B217" s="1" t="n">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+      <c r="B217" s="1">
         <v>2054</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>9126</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>5686</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>3440</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n"/>
-      <c r="B218" s="1" t="n">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="B218" s="1">
         <v>2055</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>9182</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>5680</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>3503</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n"/>
-      <c r="B219" s="1" t="n">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+      <c r="B219" s="1">
         <v>2056</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>9231</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>5672</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>3559</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n"/>
-      <c r="B220" s="1" t="n">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+      <c r="B220" s="1">
         <v>2057</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>9272</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>5662</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>3610</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n"/>
-      <c r="B221" s="1" t="n">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2"/>
+      <c r="B221" s="1">
         <v>2058</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>9304</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>5651</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>3654</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n"/>
-      <c r="B222" s="1" t="n">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+      <c r="B222" s="1">
         <v>2059</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>9331</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>5638</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>3694</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n"/>
-      <c r="B223" s="1" t="n">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2"/>
+      <c r="B223" s="1">
         <v>2060</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>9359</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>5624</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>3735</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>PPU Yrkesfag</t>
-        </is>
-      </c>
-      <c r="B224" s="1" t="n">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="1">
         <v>2024</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>13299</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>13299</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>0</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n"/>
-      <c r="B225" s="1" t="n">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2"/>
+      <c r="B225" s="1">
         <v>2025</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>13226</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>13443</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>-217</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n"/>
-      <c r="B226" s="1" t="n">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2"/>
+      <c r="B226" s="1">
         <v>2026</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>13193</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>13543</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>-350</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n"/>
-      <c r="B227" s="1" t="n">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2"/>
+      <c r="B227" s="1">
         <v>2027</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>13145</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>13575</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>-430</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n"/>
-      <c r="B228" s="1" t="n">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2"/>
+      <c r="B228" s="1">
         <v>2028</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>13099</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>13547</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>-447</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n"/>
-      <c r="B229" s="1" t="n">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
+      <c r="B229" s="1">
         <v>2029</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>13037</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>13489</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>-452</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n"/>
-      <c r="B230" s="1" t="n">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+      <c r="B230" s="1">
         <v>2030</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>12964</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>13413</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>-449</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n"/>
-      <c r="B231" s="1" t="n">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+      <c r="B231" s="1">
         <v>2031</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>12893</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>13361</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>-469</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n"/>
-      <c r="B232" s="1" t="n">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+      <c r="B232" s="1">
         <v>2032</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>12801</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>13322</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>-521</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n"/>
-      <c r="B233" s="1" t="n">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1">
         <v>2033</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>12715</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>13313</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>-598</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n"/>
-      <c r="B234" s="1" t="n">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="B234" s="1">
         <v>2034</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>12623</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>13259</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>-635</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n"/>
-      <c r="B235" s="1" t="n">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
+      <c r="B235" s="1">
         <v>2035</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>12523</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>13181</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>-658</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n"/>
-      <c r="B236" s="1" t="n">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+      <c r="B236" s="1">
         <v>2036</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>12434</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>13109</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>-674</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n"/>
-      <c r="B237" s="1" t="n">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+      <c r="B237" s="1">
         <v>2037</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>12335</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>13056</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>-721</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n"/>
-      <c r="B238" s="1" t="n">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+      <c r="B238" s="1">
         <v>2038</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>12258</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>13094</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>-836</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n"/>
-      <c r="B239" s="1" t="n">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
+      <c r="B239" s="1">
         <v>2039</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>12177</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>13051</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>-874</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n"/>
-      <c r="B240" s="1" t="n">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
+      <c r="B240" s="1">
         <v>2040</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>12107</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>13025</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>-918</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n"/>
-      <c r="B241" s="1" t="n">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2"/>
+      <c r="B241" s="1">
         <v>2041</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>12046</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>12995</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>-949</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n"/>
-      <c r="B242" s="1" t="n">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2"/>
+      <c r="B242" s="1">
         <v>2042</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>11975</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>13056</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>-1080</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n"/>
-      <c r="B243" s="1" t="n">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2"/>
+      <c r="B243" s="1">
         <v>2043</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>11925</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>13140</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>-1214</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n"/>
-      <c r="B244" s="1" t="n">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2"/>
+      <c r="B244" s="1">
         <v>2044</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>11869</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>13228</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>-1359</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n"/>
-      <c r="B245" s="1" t="n">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2"/>
+      <c r="B245" s="1">
         <v>2045</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>11823</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>13304</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>-1481</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n"/>
-      <c r="B246" s="1" t="n">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2"/>
+      <c r="B246" s="1">
         <v>2046</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>11786</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>13363</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>-1577</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n"/>
-      <c r="B247" s="1" t="n">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2"/>
+      <c r="B247" s="1">
         <v>2047</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>11743</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>13411</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>-1668</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n"/>
-      <c r="B248" s="1" t="n">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2"/>
+      <c r="B248" s="1">
         <v>2048</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>11709</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>13456</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>-1747</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n"/>
-      <c r="B249" s="1" t="n">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2"/>
+      <c r="B249" s="1">
         <v>2049</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>11677</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>13502</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>-1825</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n"/>
-      <c r="B250" s="1" t="n">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2"/>
+      <c r="B250" s="1">
         <v>2050</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>11646</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>13547</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>-1901</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n"/>
-      <c r="B251" s="1" t="n">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2"/>
+      <c r="B251" s="1">
         <v>2051</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>11622</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>13589</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>-1967</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n"/>
-      <c r="B252" s="1" t="n">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2"/>
+      <c r="B252" s="1">
         <v>2052</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>11593</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>13628</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>-2036</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n"/>
-      <c r="B253" s="1" t="n">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2"/>
+      <c r="B253" s="1">
         <v>2053</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>11569</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>13650</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253">
         <v>-2081</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n"/>
-      <c r="B254" s="1" t="n">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+      <c r="B254" s="1">
         <v>2054</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>11536</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>13656</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254">
         <v>-2120</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n"/>
-      <c r="B255" s="1" t="n">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2"/>
+      <c r="B255" s="1">
         <v>2055</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>11501</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>13649</v>
       </c>
-      <c r="E255" t="n">
+      <c r="E255">
         <v>-2148</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n"/>
-      <c r="B256" s="1" t="n">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2"/>
+      <c r="B256" s="1">
         <v>2056</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>11464</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>13639</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E256">
         <v>-2175</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n"/>
-      <c r="B257" s="1" t="n">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2"/>
+      <c r="B257" s="1">
         <v>2057</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>11425</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>13625</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E257">
         <v>-2200</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n"/>
-      <c r="B258" s="1" t="n">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2"/>
+      <c r="B258" s="1">
         <v>2058</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>11385</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>13607</v>
       </c>
-      <c r="E258" t="n">
+      <c r="E258">
         <v>-2222</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n"/>
-      <c r="B259" s="1" t="n">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2"/>
+      <c r="B259" s="1">
         <v>2059</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>11343</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>13582</v>
       </c>
-      <c r="E259" t="n">
+      <c r="E259">
         <v>-2240</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n"/>
-      <c r="B260" s="1" t="n">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2"/>
+      <c r="B260" s="1">
         <v>2060</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>11307</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>13553</v>
       </c>
-      <c r="E260" t="n">
+      <c r="E260">
         <v>-2246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="A150:A186"/>
     <mergeCell ref="A76:A112"/>
     <mergeCell ref="A224:A260"/>
     <mergeCell ref="A39:A75"/>
     <mergeCell ref="A187:A223"/>
     <mergeCell ref="A113:A149"/>
-    <mergeCell ref="A2:A38"/>
-    <mergeCell ref="A150:A186"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
